--- a/testExcel.xlsx
+++ b/testExcel.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>test</t>
   </si>
   <si>
     <t xml:space="preserve">work </t>
+  </si>
+  <si>
+    <t>repo</t>
   </si>
 </sst>
 </file>
@@ -381,21 +384,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testExcel.xlsx
+++ b/testExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>test</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>repo</t>
+  </si>
+  <si>
+    <t>new change</t>
   </si>
 </sst>
 </file>
@@ -384,15 +387,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,6 +405,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
